--- a/biology/Zoologie/Gnathophyllum_elegans/Gnathophyllum_elegans.xlsx
+++ b/biology/Zoologie/Gnathophyllum_elegans/Gnathophyllum_elegans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gnathophyllum elegans ou crevette drimo est une espèce de crevettes de la famille des Gnathophyllidae décrite par le naturaliste Antoine Risso en 1816[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gnathophyllum elegans ou crevette drimo est une espèce de crevettes de la famille des Gnathophyllidae décrite par le naturaliste Antoine Risso en 1816.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son corps en forme d'obus, est brun, moucheté de petits points jaunes. Le rostre et les deux pinces principales sont blancs. Les autres pinces ainsi que les yeux sont bleus à violet. Cette crevette peut mesurer 2 à 4 cm, la femelle étant plus grande que le mâle[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son corps en forme d'obus, est brun, moucheté de petits points jaunes. Le rostre et les deux pinces principales sont blancs. Les autres pinces ainsi que les yeux sont bleus à violet. Cette crevette peut mesurer 2 à 4 cm, la femelle étant plus grande que le mâle.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Biotope</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle vit entre la surface et 40 m de profondeur, dans des grottes ou des interstices rocheux, en Méditerranée ou dans l'Océan Atlantique est. C'est une espèce nocturne.
 </t>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gnathophyllum vient du grec gnathos (« mâchoire ») et phyllum (« feuille »). Elegans vient du latin elegans qui signifie « délicat, élégant »[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gnathophyllum vient du grec gnathos (« mâchoire ») et phyllum (« feuille »). Elegans vient du latin elegans qui signifie « délicat, élégant ».
 « Drimo » est l'ancien nom de genre de l'animal donné par Risso et vient de l'alcyonide Drimo.
 </t>
         </is>
